--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H2">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I2">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>1.534170497330667</v>
+        <v>1.120703389843333</v>
       </c>
       <c r="R2">
-        <v>13.807534475976</v>
+        <v>10.08633050859</v>
       </c>
       <c r="S2">
-        <v>0.1805658490201641</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="T2">
-        <v>0.1805658490201641</v>
+        <v>0.307792367338991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H3">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I3">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
-        <v>1.385736442594222</v>
+        <v>0.9819176228955555</v>
       </c>
       <c r="R3">
-        <v>12.471627983348</v>
+        <v>8.837258606060001</v>
       </c>
       <c r="S3">
-        <v>0.1630957430810752</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="T3">
-        <v>0.1630957430810752</v>
+        <v>0.2696759485354523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H4">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I4">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>0.6942866741191112</v>
+        <v>0.5759969444255555</v>
       </c>
       <c r="R4">
-        <v>6.248580067072001</v>
+        <v>5.18397249983</v>
       </c>
       <c r="S4">
-        <v>0.08171481787312911</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="T4">
-        <v>0.08171481787312911</v>
+        <v>0.1581930283351339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H5">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I5">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>0.5530146001831111</v>
+        <v>0.46919161566</v>
       </c>
       <c r="R5">
-        <v>4.977131401648</v>
+        <v>4.22272454094</v>
       </c>
       <c r="S5">
-        <v>0.06508764897796609</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="T5">
-        <v>0.06508764897796608</v>
+        <v>0.1288597852280838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03443933333333334</v>
+        <v>0.02440333333333333</v>
       </c>
       <c r="H6">
-        <v>0.103318</v>
+        <v>0.07321</v>
       </c>
       <c r="I6">
-        <v>0.585278256140669</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5852782561406689</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>0.8055850253177778</v>
+        <v>0.4932923801977777</v>
       </c>
       <c r="R6">
-        <v>7.25026522786</v>
+        <v>4.43963142178</v>
       </c>
       <c r="S6">
-        <v>0.09481419718833446</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="T6">
-        <v>0.09481419718833445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.07321</v>
-      </c>
-      <c r="I7">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J7">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>44.547044</v>
-      </c>
-      <c r="N7">
-        <v>133.641132</v>
-      </c>
-      <c r="O7">
-        <v>0.3085128263790582</v>
-      </c>
-      <c r="P7">
-        <v>0.3085128263790582</v>
-      </c>
-      <c r="Q7">
-        <v>1.087096363746667</v>
-      </c>
-      <c r="R7">
-        <v>9.78386727372</v>
-      </c>
-      <c r="S7">
-        <v>0.127946977358894</v>
-      </c>
-      <c r="T7">
-        <v>0.127946977358894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.07321</v>
-      </c>
-      <c r="I8">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J8">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>40.23702866666667</v>
-      </c>
-      <c r="N8">
-        <v>120.711086</v>
-      </c>
-      <c r="O8">
-        <v>0.2786635952555802</v>
-      </c>
-      <c r="P8">
-        <v>0.2786635952555802</v>
-      </c>
-      <c r="Q8">
-        <v>0.9819176228955555</v>
-      </c>
-      <c r="R8">
-        <v>8.837258606060001</v>
-      </c>
-      <c r="S8">
-        <v>0.115567852174505</v>
-      </c>
-      <c r="T8">
-        <v>0.115567852174505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.07321</v>
-      </c>
-      <c r="I9">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J9">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>20.15970133333333</v>
-      </c>
-      <c r="N9">
-        <v>60.47910400000001</v>
-      </c>
-      <c r="O9">
-        <v>0.13961704029799</v>
-      </c>
-      <c r="P9">
-        <v>0.13961704029799</v>
-      </c>
-      <c r="Q9">
-        <v>0.4919639115377778</v>
-      </c>
-      <c r="R9">
-        <v>4.427675203840001</v>
-      </c>
-      <c r="S9">
-        <v>0.05790222242486092</v>
-      </c>
-      <c r="T9">
-        <v>0.05790222242486093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.07321</v>
-      </c>
-      <c r="I10">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J10">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.05764533333333</v>
-      </c>
-      <c r="N10">
-        <v>48.172936</v>
-      </c>
-      <c r="O10">
-        <v>0.1112080421493099</v>
-      </c>
-      <c r="P10">
-        <v>0.1112080421493099</v>
-      </c>
-      <c r="Q10">
-        <v>0.3918600716177777</v>
-      </c>
-      <c r="R10">
-        <v>3.52674064456</v>
-      </c>
-      <c r="S10">
-        <v>0.04612039317134378</v>
-      </c>
-      <c r="T10">
-        <v>0.04612039317134378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02440333333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.07321</v>
-      </c>
-      <c r="I11">
-        <v>0.4147217438593311</v>
-      </c>
-      <c r="J11">
-        <v>0.414721743859331</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>23.39142333333333</v>
-      </c>
-      <c r="N11">
-        <v>70.17426999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.1619984959180618</v>
-      </c>
-      <c r="P11">
-        <v>0.1619984959180618</v>
-      </c>
-      <c r="Q11">
-        <v>0.5708287007444444</v>
-      </c>
-      <c r="R11">
-        <v>5.137458306699999</v>
-      </c>
-      <c r="S11">
-        <v>0.0671842987297273</v>
-      </c>
-      <c r="T11">
-        <v>0.0671842987297273</v>
+        <v>0.1354788705623391</v>
       </c>
     </row>
   </sheetData>
